--- a/config_8.24/game_module_config.xlsx
+++ b/config_8.24/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1013">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3855,6 +3855,22 @@
   </si>
   <si>
     <t>sys_act_base_style/sys_act_base_weekly_030</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_exit_ask</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出询问弹窗</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_Exit_AskManager</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -4504,13 +4520,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I343"/>
+  <dimension ref="A1:I344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C312" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D318" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B321" sqref="B321"/>
+      <selection pane="bottomRight" activeCell="I344" sqref="I344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13252,6 +13268,32 @@
       </c>
       <c r="I343" s="18" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" s="5">
+        <v>343</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E344" s="5">
+        <v>1</v>
+      </c>
+      <c r="F344" s="5">
+        <v>1</v>
+      </c>
+      <c r="G344" s="5">
+        <v>1</v>
+      </c>
+      <c r="I344" t="s">
+        <v>1012</v>
       </c>
     </row>
   </sheetData>
